--- a/Code/Results/Cases/Case_4_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>28.02160652410921</v>
+        <v>17.03689613626135</v>
       </c>
       <c r="C2">
-        <v>21.36802013750504</v>
+        <v>11.52911636749117</v>
       </c>
       <c r="D2">
-        <v>7.390112361509364</v>
+        <v>5.972085103660648</v>
       </c>
       <c r="E2">
-        <v>30.60715498455324</v>
+        <v>16.50818836825585</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>53.34309757087384</v>
+        <v>39.22750668874065</v>
       </c>
       <c r="H2">
-        <v>13.97841137701903</v>
+        <v>15.56785156535916</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>10.53898852208193</v>
+        <v>16.70484267705587</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>25.98533434867669</v>
+        <v>16.2738382835976</v>
       </c>
       <c r="C3">
-        <v>19.84230496392565</v>
+        <v>10.76091934065724</v>
       </c>
       <c r="D3">
-        <v>6.850319811462567</v>
+        <v>5.852429783991138</v>
       </c>
       <c r="E3">
-        <v>28.25514653905736</v>
+        <v>15.56474104257025</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>49.72714201456985</v>
+        <v>38.21224104383481</v>
       </c>
       <c r="H3">
-        <v>13.34448328129669</v>
+        <v>15.50067658952727</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>10.85961328602605</v>
+        <v>16.78284731500795</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>24.67666512123027</v>
+        <v>15.79170575756254</v>
       </c>
       <c r="C4">
-        <v>18.86322605041327</v>
+        <v>10.26013374642917</v>
       </c>
       <c r="D4">
-        <v>6.503777939775778</v>
+        <v>5.779761241885162</v>
       </c>
       <c r="E4">
-        <v>26.7589565096861</v>
+        <v>14.96142054577128</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>47.47027881684694</v>
+        <v>37.59329657275025</v>
       </c>
       <c r="H4">
-        <v>12.96330573830682</v>
+        <v>15.46437675690437</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>11.05826729633903</v>
+        <v>16.8327148442062</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>24.12828392810158</v>
+        <v>15.59212323495235</v>
       </c>
       <c r="C5">
-        <v>18.45329056765326</v>
+        <v>10.04871409016531</v>
       </c>
       <c r="D5">
-        <v>6.358652138230066</v>
+        <v>5.750393338361255</v>
       </c>
       <c r="E5">
-        <v>26.13536485053875</v>
+        <v>14.70978760093013</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>46.54134742138194</v>
+        <v>37.3426154512547</v>
       </c>
       <c r="H5">
-        <v>12.80999678279605</v>
+        <v>15.45083247941425</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>11.13975219888843</v>
+        <v>16.85353389926881</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>24.03630326729854</v>
+        <v>15.55880485317855</v>
       </c>
       <c r="C6">
-        <v>18.38455088905507</v>
+        <v>10.01316361757609</v>
       </c>
       <c r="D6">
-        <v>6.334315142989168</v>
+        <v>5.745532908848067</v>
       </c>
       <c r="E6">
-        <v>26.03095802357061</v>
+        <v>14.66766429965372</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>46.38654610665178</v>
+        <v>37.30109598732123</v>
       </c>
       <c r="H6">
-        <v>12.78466280736811</v>
+        <v>15.44865894427571</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>11.15331712251489</v>
+        <v>16.85702099211328</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>24.6693310586643</v>
+        <v>15.78902626462461</v>
       </c>
       <c r="C7">
-        <v>18.85774226226166</v>
+        <v>10.25731224275814</v>
       </c>
       <c r="D7">
-        <v>6.501836678695468</v>
+        <v>5.779364125534194</v>
       </c>
       <c r="E7">
-        <v>26.75060372499827</v>
+        <v>14.95804992236081</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>47.45778815066887</v>
+        <v>37.58990897530204</v>
       </c>
       <c r="H7">
-        <v>12.96122994156909</v>
+        <v>15.46418903556892</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>11.0593639724132</v>
+        <v>16.83299360013762</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>27.33136160461952</v>
+        <v>16.77679444426207</v>
       </c>
       <c r="C8">
-        <v>20.85052457746935</v>
+        <v>11.27026826622946</v>
       </c>
       <c r="D8">
-        <v>7.207058799692284</v>
+        <v>5.930688098030909</v>
       </c>
       <c r="E8">
-        <v>29.80647523585436</v>
+        <v>16.18802346645868</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>52.10381120787913</v>
+        <v>38.87677746354422</v>
       </c>
       <c r="H8">
-        <v>13.75814706613822</v>
+        <v>15.54366640994965</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>10.64921950957857</v>
+        <v>16.73133031967497</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>32.10909116972675</v>
+        <v>18.59402542031144</v>
       </c>
       <c r="C9">
-        <v>24.4396113341849</v>
+        <v>13.02685772686901</v>
       </c>
       <c r="D9">
-        <v>8.475649692127305</v>
+        <v>6.231876580794786</v>
       </c>
       <c r="E9">
-        <v>35.42801755883503</v>
+        <v>18.49463885423302</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>61.05475761430937</v>
+        <v>41.41724141192646</v>
       </c>
       <c r="H9">
-        <v>15.38748889116436</v>
+        <v>15.73847778379691</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.855162848904826</v>
+        <v>16.54754084595467</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>35.38347136176989</v>
+        <v>19.84287966778541</v>
       </c>
       <c r="C10">
-        <v>26.90999300954133</v>
+        <v>14.17892224268069</v>
       </c>
       <c r="D10">
-        <v>9.346902388580013</v>
+        <v>6.45337621046393</v>
       </c>
       <c r="E10">
-        <v>39.40298586313995</v>
+        <v>20.15921214456702</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>67.55707537102924</v>
+        <v>43.27078541270711</v>
       </c>
       <c r="H10">
-        <v>16.83060779119881</v>
+        <v>15.90484708400396</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>9.272163426929749</v>
+        <v>16.42189194404978</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>36.83130697402656</v>
+        <v>20.39012444712388</v>
       </c>
       <c r="C11">
-        <v>28.00554500605494</v>
+        <v>14.67329237863586</v>
       </c>
       <c r="D11">
-        <v>9.732510086287737</v>
+        <v>6.553688660743695</v>
       </c>
       <c r="E11">
-        <v>41.19834450982357</v>
+        <v>20.87494270755589</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>70.50414106360381</v>
+        <v>44.10670569162296</v>
       </c>
       <c r="H11">
-        <v>17.555111685402</v>
+        <v>15.98543370933745</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>9.005685121612688</v>
+        <v>16.36674415396013</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>37.3745554224638</v>
+        <v>20.59420752125033</v>
       </c>
       <c r="C12">
-        <v>28.41717420822838</v>
+        <v>14.85625184536864</v>
       </c>
       <c r="D12">
-        <v>9.877239748215564</v>
+        <v>6.591570580804554</v>
       </c>
       <c r="E12">
-        <v>41.87861063071861</v>
+        <v>21.14004664248803</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>71.62103047472613</v>
+        <v>44.42186088355119</v>
       </c>
       <c r="H12">
-        <v>17.82990648755396</v>
+        <v>16.01664006878525</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>8.904484165457504</v>
+        <v>16.34614848842054</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>37.25776229462488</v>
+        <v>20.5503966092342</v>
       </c>
       <c r="C13">
-        <v>28.32865104894109</v>
+        <v>14.81703678321944</v>
       </c>
       <c r="D13">
-        <v>9.846122508767326</v>
+        <v>6.583417276250433</v>
       </c>
       <c r="E13">
-        <v>41.73204315520734</v>
+        <v>21.08321478565921</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>71.38040159708017</v>
+        <v>44.35405359027966</v>
       </c>
       <c r="H13">
-        <v>17.77069349750424</v>
+        <v>16.00988879476456</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>8.926294234328386</v>
+        <v>16.35057136589021</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>36.87609449285365</v>
+        <v>20.40697830267578</v>
       </c>
       <c r="C14">
-        <v>28.03946936255488</v>
+        <v>14.68842955606942</v>
       </c>
       <c r="D14">
-        <v>9.744441344434081</v>
+        <v>6.556807537710359</v>
       </c>
       <c r="E14">
-        <v>41.25428739403672</v>
+        <v>20.89687154559293</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>70.59599360574606</v>
+        <v>44.13266343152023</v>
       </c>
       <c r="H14">
-        <v>17.57770633699835</v>
+        <v>15.98798734067935</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>8.997365702580613</v>
+        <v>16.36504398068081</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>36.64169147324474</v>
+        <v>20.31871672239593</v>
       </c>
       <c r="C15">
-        <v>27.86194399006106</v>
+        <v>14.60910145449055</v>
       </c>
       <c r="D15">
-        <v>9.681998821774096</v>
+        <v>6.540493589483024</v>
       </c>
       <c r="E15">
-        <v>40.96177716600023</v>
+        <v>20.781960120273</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>70.11572309516717</v>
+        <v>43.99686480557786</v>
       </c>
       <c r="H15">
-        <v>17.45957423569854</v>
+        <v>15.9746614397717</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>9.040857934122524</v>
+        <v>16.37394628549293</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>35.28809206540842</v>
+        <v>19.80668302639473</v>
       </c>
       <c r="C16">
-        <v>26.83789462628546</v>
+        <v>14.14601824771769</v>
       </c>
       <c r="D16">
-        <v>9.321506473499491</v>
+        <v>6.446808083715887</v>
       </c>
       <c r="E16">
-        <v>39.28557629010545</v>
+        <v>20.11160586200481</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>67.36445427548182</v>
+        <v>43.21597976891211</v>
       </c>
       <c r="H16">
-        <v>16.78328511255228</v>
+        <v>15.89967797579741</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>9.289543471803242</v>
+        <v>16.42553630962437</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>34.44765907680367</v>
+        <v>19.48711112400809</v>
       </c>
       <c r="C17">
-        <v>26.20297606374653</v>
+        <v>13.85433974436203</v>
       </c>
       <c r="D17">
-        <v>9.097771762667902</v>
+        <v>6.389191204712596</v>
       </c>
       <c r="E17">
-        <v>38.25542348499798</v>
+        <v>19.6897657581402</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>65.67540298696488</v>
+        <v>42.73481742699281</v>
       </c>
       <c r="H17">
-        <v>16.36849859157908</v>
+        <v>15.85492380123183</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>9.44170044984436</v>
+        <v>16.45769898517346</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>33.96027053005136</v>
+        <v>19.30134499726179</v>
       </c>
       <c r="C18">
-        <v>25.83507121618127</v>
+        <v>13.68377610118912</v>
       </c>
       <c r="D18">
-        <v>8.968057978830251</v>
+        <v>6.356011499509481</v>
       </c>
       <c r="E18">
-        <v>37.66153284629619</v>
+        <v>19.44322673221755</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>64.70269907931836</v>
+        <v>42.45740063388718</v>
       </c>
       <c r="H18">
-        <v>16.1297773500639</v>
+        <v>15.82964502765886</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>9.529104196939011</v>
+        <v>16.47638743462628</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>33.79453656247708</v>
+        <v>19.23811654159995</v>
       </c>
       <c r="C19">
-        <v>25.71001600373935</v>
+        <v>13.62554489669379</v>
       </c>
       <c r="D19">
-        <v>8.923955774127004</v>
+        <v>6.344771794828846</v>
       </c>
       <c r="E19">
-        <v>37.46015557906455</v>
+        <v>19.35908050924478</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>64.37308668578922</v>
+        <v>42.36336880524333</v>
       </c>
       <c r="H19">
-        <v>16.0489096819827</v>
+        <v>15.82116596899526</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>9.558681584164916</v>
+        <v>16.48274758605832</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>34.53753148073466</v>
+        <v>19.52133375658785</v>
       </c>
       <c r="C20">
-        <v>26.27083994455223</v>
+        <v>13.88567881163303</v>
       </c>
       <c r="D20">
-        <v>9.121693383053204</v>
+        <v>6.39532905389707</v>
       </c>
       <c r="E20">
-        <v>38.36521260397835</v>
+        <v>19.73507551344093</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>65.85531450877356</v>
+        <v>42.78610937964697</v>
       </c>
       <c r="H20">
-        <v>16.41266474861255</v>
+        <v>15.85964018348843</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>9.425515568871369</v>
+        <v>16.45425562958226</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>36.98832682343193</v>
+        <v>20.44919018471665</v>
       </c>
       <c r="C21">
-        <v>28.12448923367908</v>
+        <v>14.72631970514639</v>
       </c>
       <c r="D21">
-        <v>9.774340360916534</v>
+        <v>6.564626597361384</v>
       </c>
       <c r="E21">
-        <v>41.39458410810735</v>
+        <v>20.95176563929716</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>70.82634573823708</v>
+        <v>44.1977314205115</v>
       </c>
       <c r="H21">
-        <v>17.63437374700536</v>
+        <v>15.99440173297304</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>8.976499039033836</v>
+        <v>16.36078522925632</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>38.56145147416282</v>
+        <v>21.03720497264508</v>
       </c>
       <c r="C22">
-        <v>29.31764591412509</v>
+        <v>15.25097912135801</v>
       </c>
       <c r="D22">
-        <v>10.19351154190236</v>
+        <v>6.674647938148601</v>
       </c>
       <c r="E22">
-        <v>43.37829874502482</v>
+        <v>21.71240977215843</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>74.08212802189063</v>
+        <v>45.11206667744559</v>
       </c>
       <c r="H22">
-        <v>18.43581381984896</v>
+        <v>16.08648962400661</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>8.681297678951953</v>
+        <v>16.30137262003969</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>37.72408023470772</v>
+        <v>20.7250957887573</v>
       </c>
       <c r="C23">
-        <v>28.68218557615972</v>
+        <v>14.97321490705268</v>
       </c>
       <c r="D23">
-        <v>9.970369133989397</v>
+        <v>6.615997162422136</v>
       </c>
       <c r="E23">
-        <v>42.31829726724389</v>
+        <v>21.30958667103472</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>72.34281682439752</v>
+        <v>44.62492991495954</v>
       </c>
       <c r="H23">
-        <v>18.00755182873607</v>
+        <v>16.03697879657852</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>8.839045759609863</v>
+        <v>16.33292941345728</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>34.49691335880151</v>
+        <v>19.50586804715138</v>
       </c>
       <c r="C24">
-        <v>26.24016771985707</v>
+        <v>13.87151937237503</v>
       </c>
       <c r="D24">
-        <v>9.110881818519852</v>
+        <v>6.392554300540505</v>
       </c>
       <c r="E24">
-        <v>38.31558222020239</v>
+        <v>19.71460348972188</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>65.77398181267449</v>
+        <v>42.76292272254998</v>
       </c>
       <c r="H24">
-        <v>16.39269806583293</v>
+        <v>15.85750650117246</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>9.432832973585361</v>
+        <v>16.45581175474329</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>30.8607761255322</v>
+        <v>18.11673610630323</v>
       </c>
       <c r="C25">
-        <v>23.50020517981156</v>
+        <v>12.57609131042948</v>
       </c>
       <c r="D25">
-        <v>8.143861622945018</v>
+        <v>6.150183572389892</v>
       </c>
       <c r="E25">
-        <v>33.9404312879214</v>
+        <v>17.84459267966255</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>58.63758438527539</v>
+        <v>40.73064510304653</v>
       </c>
       <c r="H25">
-        <v>14.93896304116833</v>
+        <v>15.68165067321743</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>10.06946441625771</v>
+        <v>16.59560530536929</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_4_93/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_4_93/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>17.03689613626135</v>
+        <v>28.02160652410931</v>
       </c>
       <c r="C2">
-        <v>11.52911636749117</v>
+        <v>21.36802013750511</v>
       </c>
       <c r="D2">
-        <v>5.972085103660648</v>
+        <v>7.390112361509325</v>
       </c>
       <c r="E2">
-        <v>16.50818836825585</v>
+        <v>30.60715498455323</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>39.22750668874065</v>
+        <v>53.34309757087385</v>
       </c>
       <c r="H2">
-        <v>15.56785156535916</v>
+        <v>13.97841137701899</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>16.70484267705587</v>
+        <v>10.53898852208186</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,25 +468,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.2738382835976</v>
+        <v>25.98533434867673</v>
       </c>
       <c r="C3">
-        <v>10.76091934065724</v>
+        <v>19.84230496392557</v>
       </c>
       <c r="D3">
-        <v>5.852429783991138</v>
+        <v>6.850319811462567</v>
       </c>
       <c r="E3">
-        <v>15.56474104257025</v>
+        <v>28.2551465390574</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>38.21224104383481</v>
+        <v>49.72714201456991</v>
       </c>
       <c r="H3">
-        <v>15.50067658952727</v>
+        <v>13.34448328129668</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>16.78284731500795</v>
+        <v>10.85961328602605</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,25 +515,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79170575756254</v>
+        <v>24.67666512123038</v>
       </c>
       <c r="C4">
-        <v>10.26013374642917</v>
+        <v>18.86322605041331</v>
       </c>
       <c r="D4">
-        <v>5.779761241885162</v>
+        <v>6.50377793977581</v>
       </c>
       <c r="E4">
-        <v>14.96142054577128</v>
+        <v>26.75895650968612</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>37.59329657275025</v>
+        <v>47.47027881684696</v>
       </c>
       <c r="H4">
-        <v>15.46437675690437</v>
+        <v>12.96330573830677</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>16.8327148442062</v>
+        <v>11.05826729633897</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,25 +562,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.59212323495235</v>
+        <v>24.1282839281016</v>
       </c>
       <c r="C5">
-        <v>10.04871409016531</v>
+        <v>18.45329056765326</v>
       </c>
       <c r="D5">
-        <v>5.750393338361255</v>
+        <v>6.358652138230083</v>
       </c>
       <c r="E5">
-        <v>14.70978760093013</v>
+        <v>26.13536485053879</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>37.3426154512547</v>
+        <v>46.54134742138199</v>
       </c>
       <c r="H5">
-        <v>15.45083247941425</v>
+        <v>12.80999678279602</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>16.85353389926881</v>
+        <v>11.1397521988884</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,25 +609,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.55880485317855</v>
+        <v>24.03630326729855</v>
       </c>
       <c r="C6">
-        <v>10.01316361757609</v>
+        <v>18.38455088905499</v>
       </c>
       <c r="D6">
-        <v>5.745532908848067</v>
+        <v>6.334315142989151</v>
       </c>
       <c r="E6">
-        <v>14.66766429965372</v>
+        <v>26.03095802357058</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>37.30109598732123</v>
+        <v>46.38654610665179</v>
       </c>
       <c r="H6">
-        <v>15.44865894427571</v>
+        <v>12.78466280736811</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>16.85702099211328</v>
+        <v>11.15331712251493</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,25 +656,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.78902626462461</v>
+        <v>24.6693310586643</v>
       </c>
       <c r="C7">
-        <v>10.25731224275814</v>
+        <v>18.85774226226172</v>
       </c>
       <c r="D7">
-        <v>5.779364125534194</v>
+        <v>6.501836678695429</v>
       </c>
       <c r="E7">
-        <v>14.95804992236081</v>
+        <v>26.75060372499825</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>37.58990897530204</v>
+        <v>47.45778815066885</v>
       </c>
       <c r="H7">
-        <v>15.46418903556892</v>
+        <v>12.96122994156908</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>16.83299360013762</v>
+        <v>11.05936397241317</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,25 +703,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.77679444426207</v>
+        <v>27.33136160461956</v>
       </c>
       <c r="C8">
-        <v>11.27026826622946</v>
+        <v>20.8505245774695</v>
       </c>
       <c r="D8">
-        <v>5.930688098030909</v>
+        <v>7.207058799692255</v>
       </c>
       <c r="E8">
-        <v>16.18802346645868</v>
+        <v>29.80647523585436</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>38.87677746354422</v>
+        <v>52.10381120787913</v>
       </c>
       <c r="H8">
-        <v>15.54366640994965</v>
+        <v>13.75814706613819</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>16.73133031967497</v>
+        <v>10.64921950957857</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,25 +750,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.59402542031144</v>
+        <v>32.10909116972665</v>
       </c>
       <c r="C9">
-        <v>13.02685772686901</v>
+        <v>24.43961133418492</v>
       </c>
       <c r="D9">
-        <v>6.231876580794786</v>
+        <v>8.475649692127369</v>
       </c>
       <c r="E9">
-        <v>18.49463885423302</v>
+        <v>35.42801755883499</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>41.41724141192646</v>
+        <v>61.05475761430915</v>
       </c>
       <c r="H9">
-        <v>15.73847778379691</v>
+        <v>15.38748889116436</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>16.54754084595467</v>
+        <v>9.85516284890485</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,25 +797,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.84287966778541</v>
+        <v>35.38347136176999</v>
       </c>
       <c r="C10">
-        <v>14.17892224268069</v>
+        <v>26.90999300954145</v>
       </c>
       <c r="D10">
-        <v>6.45337621046393</v>
+        <v>9.346902388579984</v>
       </c>
       <c r="E10">
-        <v>20.15921214456702</v>
+        <v>39.40298586314004</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>43.27078541270711</v>
+        <v>67.55707537102938</v>
       </c>
       <c r="H10">
-        <v>15.90484708400396</v>
+        <v>16.83060779119883</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>16.42189194404978</v>
+        <v>9.272163426929652</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,25 +844,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.39012444712388</v>
+        <v>36.83130697402658</v>
       </c>
       <c r="C11">
-        <v>14.67329237863586</v>
+        <v>28.00554500605485</v>
       </c>
       <c r="D11">
-        <v>6.553688660743695</v>
+        <v>9.732510086287789</v>
       </c>
       <c r="E11">
-        <v>20.87494270755589</v>
+        <v>41.1983445098236</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>44.10670569162296</v>
+        <v>70.50414106360385</v>
       </c>
       <c r="H11">
-        <v>15.98543370933745</v>
+        <v>17.55511168540205</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>16.36674415396013</v>
+        <v>9.0056851216127</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,25 +891,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.59420752125033</v>
+        <v>37.37455542246386</v>
       </c>
       <c r="C12">
-        <v>14.85625184536864</v>
+        <v>28.41717420822846</v>
       </c>
       <c r="D12">
-        <v>6.591570580804554</v>
+        <v>9.877239748215601</v>
       </c>
       <c r="E12">
-        <v>21.14004664248803</v>
+        <v>41.87861063071859</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>44.42186088355119</v>
+        <v>71.62103047472638</v>
       </c>
       <c r="H12">
-        <v>16.01664006878525</v>
+        <v>17.82990648755402</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>16.34614848842054</v>
+        <v>8.904484165457418</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,25 +938,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.5503966092342</v>
+        <v>37.25776229462486</v>
       </c>
       <c r="C13">
-        <v>14.81703678321944</v>
+        <v>28.32865104894107</v>
       </c>
       <c r="D13">
-        <v>6.583417276250433</v>
+        <v>9.846122508767385</v>
       </c>
       <c r="E13">
-        <v>21.08321478565921</v>
+        <v>41.73204315520717</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>44.35405359027966</v>
+        <v>71.38040159708022</v>
       </c>
       <c r="H13">
-        <v>16.00988879476456</v>
+        <v>17.77069349750425</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>16.35057136589021</v>
+        <v>8.926294234328429</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,25 +985,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.40697830267578</v>
+        <v>36.87609449285365</v>
       </c>
       <c r="C14">
-        <v>14.68842955606942</v>
+        <v>28.03946936255493</v>
       </c>
       <c r="D14">
-        <v>6.556807537710359</v>
+        <v>9.744441344434053</v>
       </c>
       <c r="E14">
-        <v>20.89687154559293</v>
+        <v>41.25428739403662</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>44.13266343152023</v>
+        <v>70.5959936057461</v>
       </c>
       <c r="H14">
-        <v>15.98798734067935</v>
+        <v>17.57770633699836</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>16.36504398068081</v>
+        <v>8.997365702580618</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,25 +1032,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>20.31871672239593</v>
+        <v>36.64169147324473</v>
       </c>
       <c r="C15">
-        <v>14.60910145449055</v>
+        <v>27.86194399006092</v>
       </c>
       <c r="D15">
-        <v>6.540493589483024</v>
+        <v>9.68199882177408</v>
       </c>
       <c r="E15">
-        <v>20.781960120273</v>
+        <v>40.96177716600013</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>43.99686480557786</v>
+        <v>70.11572309516706</v>
       </c>
       <c r="H15">
-        <v>15.9746614397717</v>
+        <v>17.45957423569852</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>16.37394628549293</v>
+        <v>9.040857934122553</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,25 +1079,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.80668302639473</v>
+        <v>35.28809206540839</v>
       </c>
       <c r="C16">
-        <v>14.14601824771769</v>
+        <v>26.83789462628556</v>
       </c>
       <c r="D16">
-        <v>6.446808083715887</v>
+        <v>9.321506473499579</v>
       </c>
       <c r="E16">
-        <v>20.11160586200481</v>
+        <v>39.2855762901055</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>43.21597976891211</v>
+        <v>67.36445427548189</v>
       </c>
       <c r="H16">
-        <v>15.89967797579741</v>
+        <v>16.78328511255229</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>16.42553630962437</v>
+        <v>9.289543471803249</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,25 +1126,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.48711112400809</v>
+        <v>34.44765907680352</v>
       </c>
       <c r="C17">
-        <v>13.85433974436203</v>
+        <v>26.20297606374648</v>
       </c>
       <c r="D17">
-        <v>6.389191204712596</v>
+        <v>9.097771762667819</v>
       </c>
       <c r="E17">
-        <v>19.6897657581402</v>
+        <v>38.25542348499795</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>42.73481742699281</v>
+        <v>65.6754029869647</v>
       </c>
       <c r="H17">
-        <v>15.85492380123183</v>
+        <v>16.36849859157907</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>16.45769898517346</v>
+        <v>9.441700449844388</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,25 +1173,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.30134499726179</v>
+        <v>33.96027053005128</v>
       </c>
       <c r="C18">
-        <v>13.68377610118912</v>
+        <v>25.83507121618127</v>
       </c>
       <c r="D18">
-        <v>6.356011499509481</v>
+        <v>8.968057978830341</v>
       </c>
       <c r="E18">
-        <v>19.44322673221755</v>
+        <v>37.66153284629615</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>42.45740063388718</v>
+        <v>64.70269907931814</v>
       </c>
       <c r="H18">
-        <v>15.82964502765886</v>
+        <v>16.12977735006387</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>16.47638743462628</v>
+        <v>9.529104196939034</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,25 +1220,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>19.23811654159995</v>
+        <v>33.79453656247697</v>
       </c>
       <c r="C19">
-        <v>13.62554489669379</v>
+        <v>25.71001600373925</v>
       </c>
       <c r="D19">
-        <v>6.344771794828846</v>
+        <v>8.923955774127027</v>
       </c>
       <c r="E19">
-        <v>19.35908050924478</v>
+        <v>37.46015557906443</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>42.36336880524333</v>
+        <v>64.37308668578899</v>
       </c>
       <c r="H19">
-        <v>15.82116596899526</v>
+        <v>16.04890968198265</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>16.48274758605832</v>
+        <v>9.558681584165109</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,25 +1267,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.52133375658785</v>
+        <v>34.53753148073451</v>
       </c>
       <c r="C20">
-        <v>13.88567881163303</v>
+        <v>26.27083994455224</v>
       </c>
       <c r="D20">
-        <v>6.39532905389707</v>
+        <v>9.121693383053257</v>
       </c>
       <c r="E20">
-        <v>19.73507551344093</v>
+        <v>38.36521260397837</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>42.78610937964697</v>
+        <v>65.8553145087733</v>
       </c>
       <c r="H20">
-        <v>15.85964018348843</v>
+        <v>16.4126647486125</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>16.45425562958226</v>
+        <v>9.425515568871429</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,25 +1314,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.44919018471665</v>
+        <v>36.98832682343214</v>
       </c>
       <c r="C21">
-        <v>14.72631970514639</v>
+        <v>28.12448923367913</v>
       </c>
       <c r="D21">
-        <v>6.564626597361384</v>
+        <v>9.774340360916513</v>
       </c>
       <c r="E21">
-        <v>20.95176563929716</v>
+        <v>41.39458410810741</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>44.1977314205115</v>
+        <v>70.82634573823746</v>
       </c>
       <c r="H21">
-        <v>15.99440173297304</v>
+        <v>17.63437374700545</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>16.36078522925632</v>
+        <v>8.976499039033786</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,25 +1361,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>21.03720497264508</v>
+        <v>38.56145147416272</v>
       </c>
       <c r="C22">
-        <v>15.25097912135801</v>
+        <v>29.31764591412498</v>
       </c>
       <c r="D22">
-        <v>6.674647938148601</v>
+        <v>10.19351154190234</v>
       </c>
       <c r="E22">
-        <v>21.71240977215843</v>
+        <v>43.37829874502471</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>45.11206667744559</v>
+        <v>74.08212802189036</v>
       </c>
       <c r="H22">
-        <v>16.08648962400661</v>
+        <v>18.43581381984892</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>16.30137262003969</v>
+        <v>8.681297678952046</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,25 +1408,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.7250957887573</v>
+        <v>37.72408023470767</v>
       </c>
       <c r="C23">
-        <v>14.97321490705268</v>
+        <v>28.68218557615963</v>
       </c>
       <c r="D23">
-        <v>6.615997162422136</v>
+        <v>9.970369133989349</v>
       </c>
       <c r="E23">
-        <v>21.30958667103472</v>
+        <v>42.31829726724391</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>44.62492991495954</v>
+        <v>72.34281682439746</v>
       </c>
       <c r="H23">
-        <v>16.03697879657852</v>
+        <v>18.00755182873603</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>16.33292941345728</v>
+        <v>8.839045759609892</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,25 +1455,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.50586804715138</v>
+        <v>34.4969133588015</v>
       </c>
       <c r="C24">
-        <v>13.87151937237503</v>
+        <v>26.24016771985699</v>
       </c>
       <c r="D24">
-        <v>6.392554300540505</v>
+        <v>9.110881818519825</v>
       </c>
       <c r="E24">
-        <v>19.71460348972188</v>
+        <v>38.31558222020234</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>42.76292272254998</v>
+        <v>65.77398181267438</v>
       </c>
       <c r="H24">
-        <v>15.85750650117246</v>
+        <v>16.39269806583291</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>16.45581175474329</v>
+        <v>9.432832973585453</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,25 +1502,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>18.11673610630323</v>
+        <v>30.86077612553207</v>
       </c>
       <c r="C25">
-        <v>12.57609131042948</v>
+        <v>23.5002051798115</v>
       </c>
       <c r="D25">
-        <v>6.150183572389892</v>
+        <v>8.143861622945</v>
       </c>
       <c r="E25">
-        <v>17.84459267966255</v>
+        <v>33.94043128792127</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>40.73064510304653</v>
+        <v>58.63758438527506</v>
       </c>
       <c r="H25">
-        <v>15.68165067321743</v>
+        <v>14.9389630411683</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>16.59560530536929</v>
+        <v>10.06946441625783</v>
       </c>
       <c r="O25">
         <v>0</v>
